--- a/biology/Botanique/Hymenophyllum_tomentosum/Hymenophyllum_tomentosum.xlsx
+++ b/biology/Botanique/Hymenophyllum_tomentosum/Hymenophyllum_tomentosum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hymenophyllum tomentosum est une espèce de fougères de la famille des Hyménophyllacées.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cette espèce a les caractéristiques suivantes :
 son rhizome est long et filiforme ;
@@ -547,7 +561,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est présente en Amérique du Sud, dans la Cordillère des Andes du Sud du Pérou au Venezuela.
 Elle est principalement épiphyte des troncs d'arbres de forêts pluviales.
@@ -579,17 +595,19 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante a été collectée en 1829 au Pérou à Pampayacu par Eduard Friedrich Poeppig. Elle a été décrite en 1834 par Gustav Kunze sous le nom de Hymenophyllum tomentosum[1].
-En 1843, Karel Bořivoj Presl la place dans le genre Sphaerocionium : Sphaerocionium tomentosum (Kunze) C.Presl[2]
-En 1849, il la déplace dans le genre : Dermatophlebium : Dermatophlebium tomentosum (Kunze) C.Presl[3].
-Cependant, une fougère collectée par Gustav Hermann Karsten en Colombie près de Bogota, à Fusugasuga, est décrite en 1859 comme une espèce nouvelle par Johann Wilhelm Sturm sous le nom de Hymenophyllum fusugasugense[4].
-Gustav Hermann Karsten lui-même remarque la proximité avec Hymenophyllum tomentosum mais il estime les différences suffisamment importantes - il s'agit de la position des nervures - pour conclure à deux espèces différentes[5].
-Près d'un siècle plus tard, Hymenophyllum fusugasugense va être reclassée par Conrad Vernon Morton comme variété de Hymenophyllum tementosum : Hymenophyllum tomentosum var fusugasugense (H.Karst. ex J.W.Sturm) C.V.Morton[6].
-Mais entretemps, Conrad Vernon Morton avait décrit, en 1947, une variété de Hymenophyllum fusugasugense H.Karst. ex J.W.Sturm : Hymenophyllum fusagasugense var. aberrans C.V.Morton[7], qui se révèle finalement être identique à Hymenophyllum tomentosum[6].
-En 1974, Conrad Vernon Morton la place dans la sous-section Plumosa de la section Sphaerocionium du sous-genre Sphaerocionium du genre Hymenophyllum[8]. Il maintient toujours à cette date la synonymie avec Hymenophyllum fusugasugense.
-Enfin, en 2006, Atsushi Ebihara, Jean-Yves Dubuisson, Kunio Iwatsuki, Sabine Hennequin et Motomi Ito confirment le classement d'origine dans le genre Hymenophyllum et en font une espèce représentative du sous-genre Sphaerocionium. Par ailleurs, ils ne maintiennent pas la synonymie avec Hymenophyllum fusugasugense qui devient une autre espèce représentative du sous-genre[9].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante a été collectée en 1829 au Pérou à Pampayacu par Eduard Friedrich Poeppig. Elle a été décrite en 1834 par Gustav Kunze sous le nom de Hymenophyllum tomentosum.
+En 1843, Karel Bořivoj Presl la place dans le genre Sphaerocionium : Sphaerocionium tomentosum (Kunze) C.Presl
+En 1849, il la déplace dans le genre : Dermatophlebium : Dermatophlebium tomentosum (Kunze) C.Presl.
+Cependant, une fougère collectée par Gustav Hermann Karsten en Colombie près de Bogota, à Fusugasuga, est décrite en 1859 comme une espèce nouvelle par Johann Wilhelm Sturm sous le nom de Hymenophyllum fusugasugense.
+Gustav Hermann Karsten lui-même remarque la proximité avec Hymenophyllum tomentosum mais il estime les différences suffisamment importantes - il s'agit de la position des nervures - pour conclure à deux espèces différentes.
+Près d'un siècle plus tard, Hymenophyllum fusugasugense va être reclassée par Conrad Vernon Morton comme variété de Hymenophyllum tementosum : Hymenophyllum tomentosum var fusugasugense (H.Karst. ex J.W.Sturm) C.V.Morton.
+Mais entretemps, Conrad Vernon Morton avait décrit, en 1947, une variété de Hymenophyllum fusugasugense H.Karst. ex J.W.Sturm : Hymenophyllum fusagasugense var. aberrans C.V.Morton, qui se révèle finalement être identique à Hymenophyllum tomentosum.
+En 1974, Conrad Vernon Morton la place dans la sous-section Plumosa de la section Sphaerocionium du sous-genre Sphaerocionium du genre Hymenophyllum. Il maintient toujours à cette date la synonymie avec Hymenophyllum fusugasugense.
+Enfin, en 2006, Atsushi Ebihara, Jean-Yves Dubuisson, Kunio Iwatsuki, Sabine Hennequin et Motomi Ito confirment le classement d'origine dans le genre Hymenophyllum et en font une espèce représentative du sous-genre Sphaerocionium. Par ailleurs, ils ne maintiennent pas la synonymie avec Hymenophyllum fusugasugense qui devient une autre espèce représentative du sous-genre.
 </t>
         </is>
       </c>
@@ -618,7 +636,9 @@
           <t>Position taxinomique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Hymenophyllum tomentosum appartient au sous-genre Sphaerocionium.
 Deux variétés ont été décrites, mais toutes les deux non maintenues :
